--- a/設計書/Sakagami/プロジェクト型演習_成果物(編集).xlsx
+++ b/設計書/Sakagami/プロジェクト型演習_成果物(編集).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Sakagami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F01182-61D3-4AB3-8675-74230941971B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4165930-FCD7-4724-A947-3F613C2C25FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -2368,6 +2368,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2431,27 +2497,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2476,137 +2524,194 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2617,9 +2722,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2655,108 +2757,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5065,7 +5065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E913E7AF-7189-4835-9B19-3E9AA40635FD}">
   <dimension ref="C1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -5195,8 +5195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:J12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5207,19 +5207,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="77"/>
       <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
@@ -5231,219 +5231,207 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="56" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="E2" s="79"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="84">
         <v>45632</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="67"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="90" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="91"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="92" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="93"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="92" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="93"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="92" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="92" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="93"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:10" ht="141" customHeight="1">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="73" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="92" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="75"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="73" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" ht="96.75" customHeight="1">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="73" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:J8"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="D1:E1"/>
@@ -5460,6 +5448,18 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5477,179 +5477,179 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115" t="s">
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115" t="s">
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115" t="s">
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="121" t="s">
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="115" t="s">
+      <c r="J6" s="108"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="109" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="111"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="109"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="120"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="111"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="120"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="111"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="120"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="111"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="120"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="111"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
       <c r="I12" s="112"/>
       <c r="J12" s="113"/>
       <c r="K12" s="114"/>
@@ -5663,132 +5663,132 @@
       <c r="S12" s="114"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115" t="s">
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="115"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="116" t="s">
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="115" t="s">
+      <c r="J14" s="122"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115" t="s">
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115" t="s">
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115" t="s">
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115" t="s">
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115" t="s">
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="115"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="121" t="s">
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="110"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="121" t="s">
+      <c r="G17" s="108"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="109" t="s">
+      <c r="J17" s="108"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="111"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="109"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="119"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="120"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="112"/>
       <c r="G18" s="113"/>
       <c r="H18" s="114"/>
@@ -5808,51 +5808,51 @@
       <c r="C19" s="112"/>
       <c r="D19" s="113"/>
       <c r="E19" s="114"/>
-      <c r="F19" s="115" t="s">
+      <c r="F19" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115" t="s">
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115" t="s">
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="115"/>
-      <c r="S19" s="115"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
     </row>
     <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="54" t="s">
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="54" t="s">
+      <c r="G22" s="77"/>
+      <c r="H22" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="55"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
@@ -5864,74 +5864,74 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="56" t="s">
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="56" t="s">
+      <c r="G23" s="79"/>
+      <c r="H23" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="88"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="67"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="89"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="67"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="89"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="106" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="91"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="58"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="105" t="s">
+      <c r="C27" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="93"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="60"/>
     </row>
     <row r="28" spans="3:24">
       <c r="C28" s="35"/>
@@ -5980,16 +5980,16 @@
       <c r="J31" s="39"/>
       <c r="K31" s="39"/>
       <c r="L31" s="40"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="105"/>
+      <c r="W31" s="105"/>
+      <c r="X31" s="105"/>
     </row>
     <row r="32" spans="3:24">
       <c r="C32" s="38"/>
@@ -6002,11 +6002,11 @@
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
       <c r="L32" s="40"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
     </row>
     <row r="33" spans="3:24">
       <c r="C33" s="38"/>
@@ -6019,11 +6019,11 @@
       <c r="J33" s="39"/>
       <c r="K33" s="39"/>
       <c r="L33" s="40"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
     </row>
     <row r="34" spans="3:24">
       <c r="C34" s="38"/>
@@ -6036,11 +6036,11 @@
       <c r="J34" s="39"/>
       <c r="K34" s="39"/>
       <c r="L34" s="40"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
     </row>
     <row r="35" spans="3:24">
       <c r="C35" s="38"/>
@@ -6053,16 +6053,16 @@
       <c r="J35" s="39"/>
       <c r="K35" s="39"/>
       <c r="L35" s="40"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="T35" s="101"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
-      <c r="X35" s="101"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="T35" s="105"/>
+      <c r="U35" s="105"/>
+      <c r="V35" s="105"/>
+      <c r="W35" s="105"/>
+      <c r="X35" s="105"/>
     </row>
     <row r="36" spans="3:24">
       <c r="C36" s="38"/>
@@ -6119,11 +6119,11 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="40"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
     </row>
     <row r="39" spans="3:24">
       <c r="C39" s="38"/>
@@ -6136,11 +6136,11 @@
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
       <c r="L39" s="40"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
     </row>
     <row r="40" spans="3:24">
       <c r="C40" s="38"/>
@@ -6153,11 +6153,11 @@
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
       <c r="L40" s="40"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="119"/>
     </row>
     <row r="41" spans="3:24">
       <c r="C41" s="38"/>
@@ -6170,11 +6170,11 @@
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
       <c r="L41" s="40"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="102"/>
-      <c r="R41" s="102"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="119"/>
     </row>
     <row r="42" spans="3:24">
       <c r="C42" s="38"/>
@@ -6266,32 +6266,32 @@
       <c r="L48" s="43"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="105" t="s">
+      <c r="C49" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="93"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="60"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="105" t="s">
+      <c r="C50" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="85"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="92" t="s">
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="86"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="50"/>
       <c r="K50" s="4" t="s">
         <v>35</v>
       </c>
@@ -6300,11 +6300,11 @@
       </c>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="105" t="s">
+      <c r="C51" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="86"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="50"/>
       <c r="F51" s="4" t="s">
         <v>37</v>
       </c>
@@ -6317,18 +6317,18 @@
       <c r="I51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="107" t="s">
+      <c r="J51" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K51" s="85"/>
-      <c r="L51" s="93"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="60"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="104" t="s">
+      <c r="C52" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="85"/>
-      <c r="E52" s="86"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
         <v>50</v>
@@ -6339,18 +6339,18 @@
       <c r="I52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="92" t="s">
+      <c r="J52" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="K52" s="85"/>
-      <c r="L52" s="93"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="60"/>
     </row>
     <row r="53" spans="3:12">
-      <c r="C53" s="104" t="s">
+      <c r="C53" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="86"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="50"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
         <v>53</v>
@@ -6368,11 +6368,11 @@
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="3:12">
-      <c r="C54" s="104" t="s">
+      <c r="C54" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="86"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
         <v>55</v>
@@ -6383,18 +6383,18 @@
       <c r="I54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J54" s="92" t="s">
+      <c r="J54" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="K54" s="85"/>
-      <c r="L54" s="93"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="60"/>
     </row>
     <row r="55" spans="3:12">
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="85"/>
-      <c r="E55" s="86"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
         <v>53</v>
@@ -6412,11 +6412,11 @@
       <c r="L55" s="12"/>
     </row>
     <row r="56" spans="3:12">
-      <c r="C56" s="104" t="s">
+      <c r="C56" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="85"/>
-      <c r="E56" s="86"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
         <v>53</v>
@@ -6434,11 +6434,11 @@
       <c r="L56" s="12"/>
     </row>
     <row r="57" spans="3:12">
-      <c r="C57" s="104" t="s">
+      <c r="C57" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="85"/>
-      <c r="E57" s="86"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6" t="s">
         <v>50</v>
@@ -6447,16 +6447,16 @@
         <v>60</v>
       </c>
       <c r="I57" s="7"/>
-      <c r="J57" s="92" t="s">
+      <c r="J57" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K57" s="85"/>
-      <c r="L57" s="93"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="60"/>
     </row>
     <row r="58" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C58" s="125"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="127"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
@@ -6468,11 +6468,11 @@
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C59" s="122" t="s">
+      <c r="C59" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="123"/>
-      <c r="E59" s="124"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="102"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8" t="s">
         <v>101</v>
@@ -6488,11 +6488,11 @@
       <c r="L59" s="13"/>
     </row>
     <row r="60" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C60" s="122" t="s">
+      <c r="C60" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="123"/>
-      <c r="E60" s="124"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="102"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
         <v>103</v>
@@ -6506,32 +6506,32 @@
       <c r="L60" s="13"/>
     </row>
     <row r="61" spans="3:12">
-      <c r="C61" s="105" t="s">
+      <c r="C61" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="93"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="60"/>
     </row>
     <row r="62" spans="3:12">
-      <c r="C62" s="105" t="s">
+      <c r="C62" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="85"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="92" t="s">
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="86"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="50"/>
       <c r="K62" s="4" t="s">
         <v>35</v>
       </c>
@@ -6540,11 +6540,11 @@
       </c>
     </row>
     <row r="63" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C63" s="105" t="s">
+      <c r="C63" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="85"/>
-      <c r="E63" s="86"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="50"/>
       <c r="F63" s="4" t="s">
         <v>37</v>
       </c>
@@ -6557,18 +6557,18 @@
       <c r="I63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J63" s="107" t="s">
+      <c r="J63" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K63" s="85"/>
-      <c r="L63" s="93"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="60"/>
     </row>
     <row r="64" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C64" s="122" t="s">
+      <c r="C64" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="123"/>
-      <c r="E64" s="124"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="102"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8" t="s">
         <v>103</v>
@@ -6582,32 +6582,32 @@
       <c r="L64" s="13"/>
     </row>
     <row r="65" spans="3:12">
-      <c r="C65" s="105" t="s">
+      <c r="C65" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="85"/>
-      <c r="L65" s="93"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="60"/>
     </row>
     <row r="66" spans="3:12">
-      <c r="C66" s="105" t="s">
+      <c r="C66" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="85"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="92" t="s">
+      <c r="D66" s="49"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="86"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="50"/>
       <c r="K66" s="4" t="s">
         <v>35</v>
       </c>
@@ -6616,11 +6616,11 @@
       </c>
     </row>
     <row r="67" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C67" s="105" t="s">
+      <c r="C67" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="85"/>
-      <c r="E67" s="86"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="50"/>
       <c r="F67" s="4" t="s">
         <v>37</v>
       </c>
@@ -6633,18 +6633,18 @@
       <c r="I67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J67" s="107" t="s">
+      <c r="J67" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="85"/>
-      <c r="L67" s="93"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="60"/>
     </row>
     <row r="68" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C68" s="122" t="s">
+      <c r="C68" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="123"/>
-      <c r="E68" s="124"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="102"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
         <v>103</v>
@@ -6659,18 +6659,61 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C65:L65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P38:R41"/>
+    <mergeCell ref="N38:O41"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="C22:E25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="F23:G25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C6:E14"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="I20:K20"/>
@@ -6687,61 +6730,18 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C49:L49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C22:E25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="F23:G25"/>
-    <mergeCell ref="H23:I25"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P38:R41"/>
-    <mergeCell ref="N38:O41"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="J67:L67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6763,19 +6763,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="139" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141" t="s">
+      <c r="E1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="140"/>
+      <c r="G1" s="174"/>
       <c r="H1" s="22" t="s">
         <v>28</v>
       </c>
@@ -6787,46 +6787,46 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="134"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="142" t="s">
+      <c r="A2" s="168"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="E2" s="79"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="84">
         <v>45632</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="128"/>
+      <c r="J2" s="163"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="134"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="129"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="164"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="136"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="130"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
       <c r="A5" s="25"/>
@@ -6840,62 +6840,62 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="151"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="148"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="152" t="s">
+      <c r="B7" s="154"/>
+      <c r="C7" s="155" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="152" t="s">
+      <c r="D7" s="154"/>
+      <c r="E7" s="155" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="153"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="154" t="s">
+      <c r="B8" s="150"/>
+      <c r="C8" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="155"/>
-      <c r="E8" s="154" t="s">
+      <c r="D8" s="158"/>
+      <c r="E8" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="158"/>
+      <c r="F8" s="161"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="159"/>
+      <c r="A9" s="151"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="162"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -6926,78 +6926,78 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="148"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="165" t="s">
+      <c r="B13" s="145"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="167"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="160" t="s">
+      <c r="B14" s="140"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="162"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="174" t="s">
+      <c r="B15" s="130"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="169"/>
-      <c r="F15" s="175"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="172"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="176" t="s">
+      <c r="B16" s="133"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="172"/>
-      <c r="F16" s="177"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -7031,12 +7031,12 @@
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="150" t="s">
+      <c r="D19" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
@@ -7307,23 +7307,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -7332,6 +7315,23 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/Sakagami/プロジェクト型演習_成果物(編集).xlsx
+++ b/設計書/Sakagami/プロジェクト型演習_成果物(編集).xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Sakagami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4165930-FCD7-4724-A947-3F613C2C25FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D5B2D1-D4F2-47E5-BCB6-F10D87513AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
     <sheet name="ユースケース記述" sheetId="2" r:id="rId2"/>
     <sheet name="画面設計書" sheetId="1" r:id="rId3"/>
     <sheet name="詳細クラス図" sheetId="3" r:id="rId4"/>
+    <sheet name="テスト仕様書兼結果報告書" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="152">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -1025,12 +1026,118 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テスト仕様書兼
+結果報告書</t>
+  </si>
+  <si>
+    <t>テストレベル</t>
+  </si>
+  <si>
+    <t>システムテスト</t>
+  </si>
+  <si>
+    <t>テストベース</t>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+  </si>
+  <si>
+    <t>テスト対象</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>重要度</t>
+  </si>
+  <si>
+    <t>重要度は、次のいずれかを持つ</t>
+  </si>
+  <si>
+    <t>◎：仕様　⇒100%解決する必要がある</t>
+  </si>
+  <si>
+    <t>○：重要　⇒別途テストパス率の指針に従う</t>
+  </si>
+  <si>
+    <t>△：重要ではない　⇒別途テストパス率の指針に従う</t>
+  </si>
+  <si>
+    <t>×：無くても良い　⇒個別に検討する</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>系統</t>
+  </si>
+  <si>
+    <t>テストテーマ</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>操作手順</t>
+  </si>
+  <si>
+    <t>予測結果</t>
+  </si>
+  <si>
+    <t>テスト日</t>
+  </si>
+  <si>
+    <t>対応者</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>◎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正常系
+</t>
+  </si>
+  <si>
+    <t>URLアクセス</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ans1101/login.html　へアクセスする</t>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移する</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>異常系</t>
+  </si>
+  <si>
+    <t>ユーザIDがDBに登録されていないときのログインボタン動作</t>
+  </si>
+  <si>
+    <t>・ユーザID：999999
+・パスワード：root</t>
+  </si>
+  <si>
+    <t>ログインするボタンを押下する</t>
+  </si>
+  <si>
+    <t>エラー画面へ遷移する
+エラーの原因がユーザ名が未入力である旨通知する</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,6 +1202,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1140,7 +1254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="93">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -2216,14 +2330,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2368,9 +2589,117 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2386,18 +2715,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2407,15 +2727,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2434,95 +2745,71 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2533,42 +2820,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2578,39 +2829,126 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2641,127 +2979,200 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="101" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="102" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{A8C13B70-D19D-4C5B-A98D-91448A1480CB}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{131674C8-E9EB-46A5-8201-48AA9C47DAB5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5065,7 +5476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E913E7AF-7189-4835-9B19-3E9AA40635FD}">
   <dimension ref="C1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -5207,19 +5618,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="76" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="77"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
@@ -5231,207 +5642,219 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="78" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="84">
+      <c r="E2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45632</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="88"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="90"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="56" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="59" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="60"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="93"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="59" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="60"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="93"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="59" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="59" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="60"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="93"/>
     </row>
     <row r="10" spans="1:10" ht="141" customHeight="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="61" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="59" t="s">
+      <c r="C11" s="70"/>
+      <c r="D11" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="89"/>
+      <c r="B12" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="61" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:10" ht="96.75" customHeight="1">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="61" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="75"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:J8"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="D1:E1"/>
@@ -5448,18 +5871,6 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5477,179 +5888,179 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106" t="s">
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106" t="s">
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106" t="s">
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106" t="s">
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="107" t="s">
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="106" t="s">
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="120" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="109"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="111"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="111"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="111"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="111"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="120"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="111"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="120"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
       <c r="I12" s="112"/>
       <c r="J12" s="113"/>
       <c r="K12" s="114"/>
@@ -5663,132 +6074,132 @@
       <c r="S12" s="114"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106" t="s">
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106" t="s">
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="121" t="s">
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="122"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="106" t="s">
+      <c r="J14" s="117"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106" t="s">
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106" t="s">
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106" t="s">
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106" t="s">
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106" t="s">
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="115"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="107" t="s">
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="107" t="s">
+      <c r="G17" s="110"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="108"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="120" t="s">
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="109"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="111"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="110"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="111"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="120"/>
       <c r="F18" s="112"/>
       <c r="G18" s="113"/>
       <c r="H18" s="114"/>
@@ -5808,51 +6219,51 @@
       <c r="C19" s="112"/>
       <c r="D19" s="113"/>
       <c r="E19" s="114"/>
-      <c r="F19" s="106" t="s">
+      <c r="F19" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106" t="s">
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106" t="s">
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="115"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
     </row>
     <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="76" t="s">
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="76" t="s">
+      <c r="G22" s="55"/>
+      <c r="H22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="77"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
@@ -5864,74 +6275,74 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="78" t="s">
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="79"/>
-      <c r="H23" s="78" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="79"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="89"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="95"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="89"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="124" t="s">
+      <c r="D26" s="84"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="58"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="91"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="60"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="93"/>
     </row>
     <row r="28" spans="3:24">
       <c r="C28" s="35"/>
@@ -5980,16 +6391,16 @@
       <c r="J31" s="39"/>
       <c r="K31" s="39"/>
       <c r="L31" s="40"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="105"/>
-      <c r="T31" s="105"/>
-      <c r="U31" s="105"/>
-      <c r="V31" s="105"/>
-      <c r="W31" s="105"/>
-      <c r="X31" s="105"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
     </row>
     <row r="32" spans="3:24">
       <c r="C32" s="38"/>
@@ -6002,11 +6413,11 @@
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
       <c r="L32" s="40"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
     </row>
     <row r="33" spans="3:24">
       <c r="C33" s="38"/>
@@ -6019,11 +6430,11 @@
       <c r="J33" s="39"/>
       <c r="K33" s="39"/>
       <c r="L33" s="40"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="105"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
     </row>
     <row r="34" spans="3:24">
       <c r="C34" s="38"/>
@@ -6036,11 +6447,11 @@
       <c r="J34" s="39"/>
       <c r="K34" s="39"/>
       <c r="L34" s="40"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
     </row>
     <row r="35" spans="3:24">
       <c r="C35" s="38"/>
@@ -6053,16 +6464,16 @@
       <c r="J35" s="39"/>
       <c r="K35" s="39"/>
       <c r="L35" s="40"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="T35" s="105"/>
-      <c r="U35" s="105"/>
-      <c r="V35" s="105"/>
-      <c r="W35" s="105"/>
-      <c r="X35" s="105"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="T35" s="101"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="101"/>
     </row>
     <row r="36" spans="3:24">
       <c r="C36" s="38"/>
@@ -6119,11 +6530,11 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="40"/>
-      <c r="N38" s="105"/>
-      <c r="O38" s="105"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
     </row>
     <row r="39" spans="3:24">
       <c r="C39" s="38"/>
@@ -6136,11 +6547,11 @@
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
       <c r="L39" s="40"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="119"/>
-      <c r="R39" s="119"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="102"/>
     </row>
     <row r="40" spans="3:24">
       <c r="C40" s="38"/>
@@ -6153,11 +6564,11 @@
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
       <c r="L40" s="40"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="119"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
     </row>
     <row r="41" spans="3:24">
       <c r="C41" s="38"/>
@@ -6170,11 +6581,11 @@
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
       <c r="L41" s="40"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="119"/>
-      <c r="R41" s="119"/>
+      <c r="N41" s="101"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="102"/>
+      <c r="R41" s="102"/>
     </row>
     <row r="42" spans="3:24">
       <c r="C42" s="38"/>
@@ -6266,32 +6677,32 @@
       <c r="L48" s="43"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="103" t="s">
+      <c r="C49" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="60"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="93"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="103" t="s">
+      <c r="C50" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="59" t="s">
+      <c r="D50" s="85"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="50"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="86"/>
       <c r="K50" s="4" t="s">
         <v>35</v>
       </c>
@@ -6300,11 +6711,11 @@
       </c>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="103" t="s">
+      <c r="C51" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="50"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="86"/>
       <c r="F51" s="4" t="s">
         <v>37</v>
       </c>
@@ -6317,18 +6728,18 @@
       <c r="I51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="104" t="s">
+      <c r="J51" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="K51" s="49"/>
-      <c r="L51" s="60"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="93"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="118" t="s">
+      <c r="C52" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="86"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
         <v>50</v>
@@ -6339,18 +6750,18 @@
       <c r="I52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="59" t="s">
+      <c r="J52" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="K52" s="49"/>
-      <c r="L52" s="60"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="93"/>
     </row>
     <row r="53" spans="3:12">
-      <c r="C53" s="118" t="s">
+      <c r="C53" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="50"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="86"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
         <v>53</v>
@@ -6368,11 +6779,11 @@
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="3:12">
-      <c r="C54" s="118" t="s">
+      <c r="C54" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="86"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
         <v>55</v>
@@ -6383,18 +6794,18 @@
       <c r="I54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J54" s="59" t="s">
+      <c r="J54" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="K54" s="49"/>
-      <c r="L54" s="60"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="93"/>
     </row>
     <row r="55" spans="3:12">
-      <c r="C55" s="118" t="s">
+      <c r="C55" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="86"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
         <v>53</v>
@@ -6412,11 +6823,11 @@
       <c r="L55" s="12"/>
     </row>
     <row r="56" spans="3:12">
-      <c r="C56" s="118" t="s">
+      <c r="C56" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="86"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
         <v>53</v>
@@ -6434,11 +6845,11 @@
       <c r="L56" s="12"/>
     </row>
     <row r="57" spans="3:12">
-      <c r="C57" s="118" t="s">
+      <c r="C57" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="86"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6" t="s">
         <v>50</v>
@@ -6447,16 +6858,16 @@
         <v>60</v>
       </c>
       <c r="I57" s="7"/>
-      <c r="J57" s="59" t="s">
+      <c r="J57" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="K57" s="49"/>
-      <c r="L57" s="60"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="93"/>
     </row>
     <row r="58" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C58" s="115"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="117"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="127"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
@@ -6468,11 +6879,11 @@
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C59" s="100" t="s">
+      <c r="C59" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="101"/>
-      <c r="E59" s="102"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="124"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8" t="s">
         <v>101</v>
@@ -6488,11 +6899,11 @@
       <c r="L59" s="13"/>
     </row>
     <row r="60" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C60" s="100" t="s">
+      <c r="C60" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="101"/>
-      <c r="E60" s="102"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="124"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
         <v>103</v>
@@ -6506,32 +6917,32 @@
       <c r="L60" s="13"/>
     </row>
     <row r="61" spans="3:12">
-      <c r="C61" s="103" t="s">
+      <c r="C61" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="60"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="93"/>
     </row>
     <row r="62" spans="3:12">
-      <c r="C62" s="103" t="s">
+      <c r="C62" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="59" t="s">
+      <c r="D62" s="85"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="50"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="86"/>
       <c r="K62" s="4" t="s">
         <v>35</v>
       </c>
@@ -6540,11 +6951,11 @@
       </c>
     </row>
     <row r="63" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C63" s="103" t="s">
+      <c r="C63" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="50"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="86"/>
       <c r="F63" s="4" t="s">
         <v>37</v>
       </c>
@@ -6557,18 +6968,18 @@
       <c r="I63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J63" s="104" t="s">
+      <c r="J63" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="K63" s="49"/>
-      <c r="L63" s="60"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="93"/>
     </row>
     <row r="64" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C64" s="100" t="s">
+      <c r="C64" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="101"/>
-      <c r="E64" s="102"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="124"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8" t="s">
         <v>103</v>
@@ -6582,32 +6993,32 @@
       <c r="L64" s="13"/>
     </row>
     <row r="65" spans="3:12">
-      <c r="C65" s="103" t="s">
+      <c r="C65" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="60"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="93"/>
     </row>
     <row r="66" spans="3:12">
-      <c r="C66" s="103" t="s">
+      <c r="C66" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="59" t="s">
+      <c r="D66" s="85"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="50"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="86"/>
       <c r="K66" s="4" t="s">
         <v>35</v>
       </c>
@@ -6616,11 +7027,11 @@
       </c>
     </row>
     <row r="67" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C67" s="103" t="s">
+      <c r="C67" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="50"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="86"/>
       <c r="F67" s="4" t="s">
         <v>37</v>
       </c>
@@ -6633,18 +7044,18 @@
       <c r="I67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J67" s="104" t="s">
+      <c r="J67" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="49"/>
-      <c r="L67" s="60"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="93"/>
     </row>
     <row r="68" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C68" s="100" t="s">
+      <c r="C68" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="101"/>
-      <c r="E68" s="102"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="124"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
         <v>103</v>
@@ -6659,61 +7070,18 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P38:R41"/>
-    <mergeCell ref="N38:O41"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="C22:E25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="F23:G25"/>
-    <mergeCell ref="H23:I25"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C49:L49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="J63:L63"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="I20:K20"/>
@@ -6730,18 +7098,61 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C65:L65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C22:E25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="F23:G25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P38:R41"/>
+    <mergeCell ref="N38:O41"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6763,19 +7174,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="173" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="174"/>
-      <c r="F1" s="175" t="s">
+      <c r="E1" s="140"/>
+      <c r="F1" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="174"/>
+      <c r="G1" s="140"/>
       <c r="H1" s="22" t="s">
         <v>28</v>
       </c>
@@ -6787,46 +7198,46 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="168"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="176" t="s">
+      <c r="A2" s="134"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="84">
+      <c r="E2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45632</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="163"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="168"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="164"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="129"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="170"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="165"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
       <c r="A5" s="25"/>
@@ -6840,62 +7251,62 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="148"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="151"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="155" t="s">
+      <c r="B7" s="149"/>
+      <c r="C7" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="154"/>
-      <c r="E7" s="155" t="s">
+      <c r="D7" s="149"/>
+      <c r="E7" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="156"/>
+      <c r="F7" s="153"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="157" t="s">
+      <c r="B8" s="145"/>
+      <c r="C8" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="157" t="s">
+      <c r="D8" s="155"/>
+      <c r="E8" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="161"/>
+      <c r="F8" s="158"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="151"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="162"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="159"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -6926,78 +7337,78 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="148"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="151"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="144" t="s">
+      <c r="A13" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="144" t="s">
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="139" t="s">
+      <c r="B14" s="161"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="141"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="162"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="135" t="s">
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="136"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="175"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="137" t="s">
+      <c r="B16" s="172"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="176" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="133"/>
-      <c r="F16" s="138"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="177"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -7031,12 +7442,12 @@
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
@@ -7307,6 +7718,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -7315,26 +7743,2047 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3CD282-41B3-4BAE-9F25-BBD3A6112B6B}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="2.5" style="185" customWidth="1"/>
+    <col min="7" max="20" width="7.125" style="185" customWidth="1"/>
+    <col min="21" max="26" width="7.625" style="185" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="185"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="18" customHeight="1">
+      <c r="A1" s="178" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="181" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="181" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="181" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="183"/>
+      <c r="S1" s="181" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="184"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" customHeight="1">
+      <c r="A2" s="186"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="192"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1">
+      <c r="A3" s="186"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="193"/>
+      <c r="T3" s="194"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="195"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="198"/>
+      <c r="T4" s="199"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" customHeight="1">
+      <c r="A5" s="200" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="201" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="184"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="A6" s="202" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="205" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="206"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" customHeight="1">
+      <c r="A7" s="202" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="205" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="206"/>
+    </row>
+    <row r="8" spans="1:26" ht="7.5" customHeight="1">
+      <c r="A8" s="207"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="208"/>
+      <c r="N8" s="208"/>
+      <c r="O8" s="208"/>
+      <c r="P8" s="208"/>
+      <c r="Q8" s="208"/>
+      <c r="R8" s="208"/>
+      <c r="S8" s="208"/>
+      <c r="T8" s="209"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="210"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="212" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="213"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
+      <c r="P9" s="211"/>
+      <c r="Q9" s="211"/>
+      <c r="R9" s="211"/>
+      <c r="S9" s="211"/>
+      <c r="T9" s="215"/>
+      <c r="U9" s="211"/>
+      <c r="V9" s="211"/>
+      <c r="W9" s="211"/>
+      <c r="X9" s="211"/>
+      <c r="Y9" s="211"/>
+      <c r="Z9" s="211"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A10" s="210"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="211"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
+      <c r="P10" s="211"/>
+      <c r="Q10" s="211"/>
+      <c r="R10" s="211"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="215"/>
+      <c r="U10" s="211"/>
+      <c r="V10" s="211"/>
+      <c r="W10" s="211"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="211"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="210"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="211"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="217"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="211"/>
+      <c r="N11" s="211"/>
+      <c r="O11" s="211"/>
+      <c r="P11" s="211"/>
+      <c r="Q11" s="211"/>
+      <c r="R11" s="211"/>
+      <c r="S11" s="211"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="211"/>
+      <c r="V11" s="211"/>
+      <c r="W11" s="211"/>
+      <c r="X11" s="211"/>
+      <c r="Y11" s="211"/>
+      <c r="Z11" s="211"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="210"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="211" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="211"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="217"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="211"/>
+      <c r="O12" s="211"/>
+      <c r="P12" s="211"/>
+      <c r="Q12" s="211"/>
+      <c r="R12" s="211"/>
+      <c r="S12" s="211"/>
+      <c r="T12" s="215"/>
+      <c r="U12" s="211"/>
+      <c r="V12" s="211"/>
+      <c r="W12" s="211"/>
+      <c r="X12" s="211"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="211"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A13" s="210"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="219" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="219"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="219"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="211"/>
+      <c r="N13" s="211"/>
+      <c r="O13" s="211"/>
+      <c r="P13" s="211"/>
+      <c r="Q13" s="211"/>
+      <c r="R13" s="211"/>
+      <c r="S13" s="211"/>
+      <c r="T13" s="215"/>
+      <c r="U13" s="211"/>
+      <c r="V13" s="211"/>
+      <c r="W13" s="211"/>
+      <c r="X13" s="211"/>
+      <c r="Y13" s="211"/>
+      <c r="Z13" s="211"/>
+    </row>
+    <row r="14" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A14" s="207"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="208"/>
+      <c r="K14" s="208"/>
+      <c r="L14" s="208"/>
+      <c r="M14" s="208"/>
+      <c r="N14" s="208"/>
+      <c r="O14" s="208"/>
+      <c r="P14" s="208"/>
+      <c r="Q14" s="208"/>
+      <c r="R14" s="208"/>
+      <c r="S14" s="208"/>
+      <c r="T14" s="209"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A15" s="202" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="204"/>
+      <c r="C15" s="221" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="204"/>
+      <c r="E15" s="222" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="204"/>
+      <c r="G15" s="222" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="203"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="222" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="204"/>
+      <c r="L15" s="222" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" s="203"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="222" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="204"/>
+      <c r="R15" s="223" t="s">
+        <v>137</v>
+      </c>
+      <c r="S15" s="223" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="224" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="48" customHeight="1">
+      <c r="A16" s="225">
+        <v>1</v>
+      </c>
+      <c r="B16" s="204"/>
+      <c r="C16" s="226" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="204"/>
+      <c r="E16" s="226" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="204"/>
+      <c r="G16" s="227" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="203"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="227" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="204"/>
+      <c r="L16" s="228" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" s="203"/>
+      <c r="N16" s="204"/>
+      <c r="O16" s="228" t="s">
+        <v>145</v>
+      </c>
+      <c r="P16" s="203"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="229"/>
+      <c r="S16" s="229"/>
+      <c r="T16" s="230"/>
+      <c r="U16" s="231"/>
+      <c r="V16" s="231"/>
+      <c r="W16" s="231"/>
+      <c r="X16" s="231"/>
+      <c r="Y16" s="231"/>
+      <c r="Z16" s="231"/>
+    </row>
+    <row r="17" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A17" s="225">
+        <v>2</v>
+      </c>
+      <c r="B17" s="204"/>
+      <c r="C17" s="226" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="204"/>
+      <c r="E17" s="226" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="204"/>
+      <c r="G17" s="227" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="203"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="227" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="204"/>
+      <c r="L17" s="228" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" s="203"/>
+      <c r="N17" s="204"/>
+      <c r="O17" s="228" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="203"/>
+      <c r="Q17" s="204"/>
+      <c r="R17" s="229"/>
+      <c r="S17" s="229"/>
+      <c r="T17" s="230"/>
+      <c r="U17" s="231"/>
+      <c r="V17" s="231"/>
+      <c r="W17" s="231"/>
+      <c r="X17" s="231"/>
+      <c r="Y17" s="231"/>
+      <c r="Z17" s="231"/>
+    </row>
+    <row r="18" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A18" s="225"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="227"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="227"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="228"/>
+      <c r="M18" s="203"/>
+      <c r="N18" s="204"/>
+      <c r="O18" s="228"/>
+      <c r="P18" s="203"/>
+      <c r="Q18" s="204"/>
+      <c r="R18" s="229"/>
+      <c r="S18" s="229"/>
+      <c r="T18" s="230"/>
+      <c r="U18" s="231"/>
+      <c r="V18" s="231"/>
+      <c r="W18" s="231"/>
+      <c r="X18" s="231"/>
+      <c r="Y18" s="231"/>
+      <c r="Z18" s="231"/>
+    </row>
+    <row r="19" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A19" s="225"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="226"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="227"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="204"/>
+      <c r="O19" s="228"/>
+      <c r="P19" s="203"/>
+      <c r="Q19" s="204"/>
+      <c r="R19" s="229"/>
+      <c r="S19" s="229"/>
+      <c r="T19" s="230"/>
+      <c r="U19" s="231"/>
+      <c r="V19" s="231"/>
+      <c r="W19" s="231"/>
+      <c r="X19" s="231"/>
+      <c r="Y19" s="231"/>
+      <c r="Z19" s="231"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A20" s="225"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="227"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="228"/>
+      <c r="M20" s="203"/>
+      <c r="N20" s="204"/>
+      <c r="O20" s="228"/>
+      <c r="P20" s="203"/>
+      <c r="Q20" s="204"/>
+      <c r="R20" s="229"/>
+      <c r="S20" s="229"/>
+      <c r="T20" s="230"/>
+      <c r="U20" s="231"/>
+      <c r="V20" s="231"/>
+      <c r="W20" s="231"/>
+      <c r="X20" s="231"/>
+      <c r="Y20" s="231"/>
+      <c r="Z20" s="231"/>
+    </row>
+    <row r="21" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A21" s="225"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="226"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="227"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="228"/>
+      <c r="M21" s="203"/>
+      <c r="N21" s="204"/>
+      <c r="O21" s="228"/>
+      <c r="P21" s="203"/>
+      <c r="Q21" s="204"/>
+      <c r="R21" s="229"/>
+      <c r="S21" s="229"/>
+      <c r="T21" s="230"/>
+      <c r="U21" s="231"/>
+      <c r="V21" s="231"/>
+      <c r="W21" s="231"/>
+      <c r="X21" s="231"/>
+      <c r="Y21" s="231"/>
+      <c r="Z21" s="231"/>
+    </row>
+    <row r="22" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A22" s="225"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="227"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="228"/>
+      <c r="M22" s="203"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="228"/>
+      <c r="P22" s="203"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="229"/>
+      <c r="S22" s="229"/>
+      <c r="T22" s="230"/>
+      <c r="U22" s="231"/>
+      <c r="V22" s="231"/>
+      <c r="W22" s="231"/>
+      <c r="X22" s="231"/>
+      <c r="Y22" s="231"/>
+      <c r="Z22" s="231"/>
+    </row>
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A23" s="225"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="227"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="228"/>
+      <c r="M23" s="203"/>
+      <c r="N23" s="204"/>
+      <c r="O23" s="228"/>
+      <c r="P23" s="203"/>
+      <c r="Q23" s="204"/>
+      <c r="R23" s="229"/>
+      <c r="S23" s="229"/>
+      <c r="T23" s="230"/>
+      <c r="U23" s="231"/>
+      <c r="V23" s="231"/>
+      <c r="W23" s="231"/>
+      <c r="X23" s="231"/>
+      <c r="Y23" s="231"/>
+      <c r="Z23" s="231"/>
+    </row>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A24" s="225"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="227"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="204"/>
+      <c r="J24" s="227"/>
+      <c r="K24" s="204"/>
+      <c r="L24" s="228"/>
+      <c r="M24" s="203"/>
+      <c r="N24" s="204"/>
+      <c r="O24" s="228"/>
+      <c r="P24" s="203"/>
+      <c r="Q24" s="204"/>
+      <c r="R24" s="229"/>
+      <c r="S24" s="229"/>
+      <c r="T24" s="230"/>
+      <c r="U24" s="231"/>
+      <c r="V24" s="231"/>
+      <c r="W24" s="231"/>
+      <c r="X24" s="231"/>
+      <c r="Y24" s="231"/>
+      <c r="Z24" s="231"/>
+    </row>
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A25" s="225"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="226"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="227"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="227"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="228"/>
+      <c r="M25" s="203"/>
+      <c r="N25" s="204"/>
+      <c r="O25" s="228"/>
+      <c r="P25" s="203"/>
+      <c r="Q25" s="204"/>
+      <c r="R25" s="229"/>
+      <c r="S25" s="229"/>
+      <c r="T25" s="230"/>
+      <c r="U25" s="231"/>
+      <c r="V25" s="231"/>
+      <c r="W25" s="231"/>
+      <c r="X25" s="231"/>
+      <c r="Y25" s="231"/>
+      <c r="Z25" s="231"/>
+    </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A26" s="225"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="226"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="226"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="227"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="228"/>
+      <c r="M26" s="203"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="228"/>
+      <c r="P26" s="203"/>
+      <c r="Q26" s="204"/>
+      <c r="R26" s="229"/>
+      <c r="S26" s="229"/>
+      <c r="T26" s="230"/>
+      <c r="U26" s="231"/>
+      <c r="V26" s="231"/>
+      <c r="W26" s="231"/>
+      <c r="X26" s="231"/>
+      <c r="Y26" s="231"/>
+      <c r="Z26" s="231"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A27" s="225"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="227"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="227"/>
+      <c r="K27" s="204"/>
+      <c r="L27" s="228"/>
+      <c r="M27" s="203"/>
+      <c r="N27" s="204"/>
+      <c r="O27" s="228"/>
+      <c r="P27" s="203"/>
+      <c r="Q27" s="204"/>
+      <c r="R27" s="229"/>
+      <c r="S27" s="229"/>
+      <c r="T27" s="230"/>
+      <c r="U27" s="231"/>
+      <c r="V27" s="231"/>
+      <c r="W27" s="231"/>
+      <c r="X27" s="231"/>
+      <c r="Y27" s="231"/>
+      <c r="Z27" s="231"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A28" s="225"/>
+      <c r="B28" s="204"/>
+      <c r="C28" s="226"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="226"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="227"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="227"/>
+      <c r="K28" s="204"/>
+      <c r="L28" s="228"/>
+      <c r="M28" s="203"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="228"/>
+      <c r="P28" s="203"/>
+      <c r="Q28" s="204"/>
+      <c r="R28" s="229"/>
+      <c r="S28" s="229"/>
+      <c r="T28" s="230"/>
+      <c r="U28" s="231"/>
+      <c r="V28" s="231"/>
+      <c r="W28" s="231"/>
+      <c r="X28" s="231"/>
+      <c r="Y28" s="231"/>
+      <c r="Z28" s="231"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A29" s="225"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="227"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="227"/>
+      <c r="K29" s="204"/>
+      <c r="L29" s="228"/>
+      <c r="M29" s="203"/>
+      <c r="N29" s="204"/>
+      <c r="O29" s="228"/>
+      <c r="P29" s="203"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="229"/>
+      <c r="S29" s="229"/>
+      <c r="T29" s="230"/>
+      <c r="U29" s="231"/>
+      <c r="V29" s="231"/>
+      <c r="W29" s="231"/>
+      <c r="X29" s="231"/>
+      <c r="Y29" s="231"/>
+      <c r="Z29" s="231"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A30" s="225"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="203"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="227"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="228"/>
+      <c r="M30" s="203"/>
+      <c r="N30" s="204"/>
+      <c r="O30" s="228"/>
+      <c r="P30" s="203"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="229"/>
+      <c r="S30" s="229"/>
+      <c r="T30" s="230"/>
+      <c r="U30" s="231"/>
+      <c r="V30" s="231"/>
+      <c r="W30" s="231"/>
+      <c r="X30" s="231"/>
+      <c r="Y30" s="231"/>
+      <c r="Z30" s="231"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A31" s="232"/>
+      <c r="B31" s="233"/>
+      <c r="C31" s="234"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="233"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="236"/>
+      <c r="I31" s="233"/>
+      <c r="J31" s="235"/>
+      <c r="K31" s="233"/>
+      <c r="L31" s="237"/>
+      <c r="M31" s="236"/>
+      <c r="N31" s="233"/>
+      <c r="O31" s="237"/>
+      <c r="P31" s="236"/>
+      <c r="Q31" s="233"/>
+      <c r="R31" s="238"/>
+      <c r="S31" s="238"/>
+      <c r="T31" s="239"/>
+      <c r="U31" s="231"/>
+      <c r="V31" s="231"/>
+      <c r="W31" s="231"/>
+      <c r="X31" s="231"/>
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
+      <c r="D32" s="240"/>
+      <c r="E32" s="240"/>
+      <c r="F32" s="240"/>
+      <c r="G32" s="240"/>
+      <c r="H32" s="240"/>
+      <c r="I32" s="240"/>
+      <c r="J32" s="240"/>
+    </row>
+    <row r="33" spans="4:10" ht="12.75" customHeight="1">
+      <c r="D33" s="240"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="240"/>
+      <c r="G33" s="240"/>
+      <c r="H33" s="240"/>
+      <c r="I33" s="240"/>
+      <c r="J33" s="240"/>
+    </row>
+    <row r="34" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="35" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="36" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="37" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="38" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="39" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="40" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="41" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="42" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="43" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="44" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="45" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="46" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="47" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="48" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="136">
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
 </file>
--- a/設計書/Sakagami/プロジェクト型演習_成果物(編集).xlsx
+++ b/設計書/Sakagami/プロジェクト型演習_成果物(編集).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Sakagami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D5B2D1-D4F2-47E5-BCB6-F10D87513AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D76BC9-5FA5-4C45-8AD8-D3A69E47A621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="170">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -1034,21 +1034,12 @@
     <t>テストレベル</t>
   </si>
   <si>
-    <t>システムテスト</t>
-  </si>
-  <si>
     <t>テストベース</t>
   </si>
   <si>
-    <t>画面遷移図</t>
-  </si>
-  <si>
     <t>テスト対象</t>
   </si>
   <si>
-    <t>ログイン画面</t>
-  </si>
-  <si>
     <t>重要度</t>
   </si>
   <si>
@@ -1095,42 +1086,441 @@
   </si>
   <si>
     <t>◎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正常系
-</t>
-  </si>
-  <si>
-    <t>URLアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常系</t>
+    <rPh sb="0" eb="3">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク管理システム</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProjectX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂上</t>
+    <rPh sb="0" eb="2">
+      <t>サカガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テスト</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク変更画面</t>
+    <rPh sb="3" eb="7">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面観点</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンカンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク詳細画面から遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク詳細画面からボタン押下し画面遷移を行う</t>
+    <rPh sb="3" eb="7">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能観点</t>
+    <rPh sb="0" eb="4">
+      <t>キノウカンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>なし</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/ans1101/login.html　へアクセスする</t>
-  </si>
-  <si>
-    <t>ログイン画面へ遷移する</t>
-  </si>
-  <si>
-    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク変更画面にて各フォームから変更内容を入力する</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された変更内容を元に変更を行い、成功すれば、変更成功画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヘンコウナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="24" eb="30">
+      <t>ヘンコウセイコウガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク変更画面にて各フォームに変更内容を入力したのち、入力内容をクリアする</t>
+    <rPh sb="3" eb="7">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ヘンコウナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ニュウリョクナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォームに入力された内容がクリアされる</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面ボタンを押下する</t>
+    <rPh sb="0" eb="4">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面ボタンを押下すると一覧画面へと画面遷移する</t>
+    <rPh sb="0" eb="4">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面観点</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>異常系</t>
-  </si>
-  <si>
-    <t>ユーザIDがDBに登録されていないときのログインボタン動作</t>
-  </si>
-  <si>
-    <t>・ユーザID：999999
-・パスワード：root</t>
-  </si>
-  <si>
-    <t>ログインするボタンを押下する</t>
-  </si>
-  <si>
-    <t>エラー画面へ遷移する
-エラーの原因がユーザ名が未入力である旨通知する</t>
+    <rPh sb="0" eb="3">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォームに入力した値が全て初期値</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当データが初期値として保持された入力フォームが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォームに初期値を入れ、変更ボタンを押下する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定された文字数以外で入力された場合</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク名の入力フォームに指定された文字数以上を入力する</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>モジスウイジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更失敗画面へ遷移する</t>
+    <rPh sb="0" eb="6">
+      <t>ヘンコウシッパイガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更失敗画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シッパイガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモの入力フォームに指定された文字数以上を入力する</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>モジスウイジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の期限を選択した場合</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限の入力フォームで過去の日付を選択し入力する</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力が必須な項目に入力を行わなかった場合</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク名の入力フォームでフォームに未入力でボタンを押下する</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2444,7 +2834,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2577,6 +2967,75 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="101" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="102" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2589,6 +3048,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2652,27 +3177,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2697,137 +3204,194 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2838,9 +3402,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2877,107 +3438,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2988,185 +3531,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="95" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="101" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="102" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5482,85 +5878,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:16" ht="33" thickTop="1">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="33"/>
     </row>
     <row r="3" spans="3:16" ht="32.25">
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
       <c r="P3" s="33"/>
     </row>
     <row r="4" spans="3:16" ht="32.25">
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
       <c r="P4" s="33"/>
     </row>
     <row r="5" spans="3:16" ht="32.25">
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="3:16" ht="33" thickBot="1">
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="3:16" ht="33" thickTop="1">
@@ -5580,17 +5976,17 @@
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="3:16" ht="24">
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5606,8 +6002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5618,19 +6014,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="100"/>
+      <c r="F1" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="100"/>
       <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
@@ -5642,219 +6038,207 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="56" t="s">
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="E2" s="102"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="107">
         <v>45632</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="67"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="113"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="90" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="91"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="92" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="93"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="83"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="92" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="93"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="83"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="92" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="92" t="s">
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="93"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:10" ht="141" customHeight="1">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="73" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="92" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="75"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="73" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" ht="96.75" customHeight="1">
       <c r="A13" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="73" t="s">
+      <c r="B13" s="114"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:J8"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="D1:E1"/>
@@ -5871,6 +6255,18 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5881,389 +6277,389 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115" t="s">
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115" t="s">
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="121" t="s">
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="115" t="s">
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="109" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="111"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="132"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="120"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="134"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="120"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="134"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="120"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="134"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="120"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="134"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="114"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="137"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115" t="s">
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115" t="s">
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="115"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="116" t="s">
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="115" t="s">
+      <c r="J14" s="145"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115" t="s">
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115" t="s">
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115" t="s">
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115" t="s">
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="115"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="121" t="s">
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="110"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="121" t="s">
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="109" t="s">
+      <c r="J17" s="131"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="111"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="132"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="119"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="114"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
+      <c r="S18" s="137"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115" t="s">
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115" t="s">
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="115"/>
-      <c r="S19" s="115"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
     </row>
     <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="54" t="s">
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="54" t="s">
+      <c r="G22" s="100"/>
+      <c r="H22" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="55"/>
+      <c r="I22" s="100"/>
       <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
@@ -6275,74 +6671,74 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="56" t="s">
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="56" t="s">
+      <c r="G23" s="102"/>
+      <c r="H23" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="67"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="112"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="67"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="112"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="106" t="s">
+      <c r="D26" s="80"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="91"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="81"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="105" t="s">
+      <c r="C27" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="93"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="83"/>
     </row>
     <row r="28" spans="3:24">
       <c r="C28" s="35"/>
@@ -6391,16 +6787,16 @@
       <c r="J31" s="39"/>
       <c r="K31" s="39"/>
       <c r="L31" s="40"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
     </row>
     <row r="32" spans="3:24">
       <c r="C32" s="38"/>
@@ -6413,11 +6809,11 @@
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
       <c r="L32" s="40"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="128"/>
     </row>
     <row r="33" spans="3:24">
       <c r="C33" s="38"/>
@@ -6430,11 +6826,11 @@
       <c r="J33" s="39"/>
       <c r="K33" s="39"/>
       <c r="L33" s="40"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="150"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
     </row>
     <row r="34" spans="3:24">
       <c r="C34" s="38"/>
@@ -6447,11 +6843,11 @@
       <c r="J34" s="39"/>
       <c r="K34" s="39"/>
       <c r="L34" s="40"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
     </row>
     <row r="35" spans="3:24">
       <c r="C35" s="38"/>
@@ -6464,16 +6860,16 @@
       <c r="J35" s="39"/>
       <c r="K35" s="39"/>
       <c r="L35" s="40"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="T35" s="101"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
-      <c r="X35" s="101"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="128"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="128"/>
     </row>
     <row r="36" spans="3:24">
       <c r="C36" s="38"/>
@@ -6530,11 +6926,11 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="40"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="142"/>
+      <c r="Q38" s="142"/>
+      <c r="R38" s="142"/>
     </row>
     <row r="39" spans="3:24">
       <c r="C39" s="38"/>
@@ -6547,11 +6943,11 @@
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
       <c r="L39" s="40"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
+      <c r="N39" s="128"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="142"/>
+      <c r="Q39" s="142"/>
+      <c r="R39" s="142"/>
     </row>
     <row r="40" spans="3:24">
       <c r="C40" s="38"/>
@@ -6564,11 +6960,11 @@
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
       <c r="L40" s="40"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
+      <c r="N40" s="128"/>
+      <c r="O40" s="128"/>
+      <c r="P40" s="142"/>
+      <c r="Q40" s="142"/>
+      <c r="R40" s="142"/>
     </row>
     <row r="41" spans="3:24">
       <c r="C41" s="38"/>
@@ -6581,11 +6977,11 @@
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
       <c r="L41" s="40"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="102"/>
-      <c r="R41" s="102"/>
+      <c r="N41" s="128"/>
+      <c r="O41" s="128"/>
+      <c r="P41" s="142"/>
+      <c r="Q41" s="142"/>
+      <c r="R41" s="142"/>
     </row>
     <row r="42" spans="3:24">
       <c r="C42" s="38"/>
@@ -6677,32 +7073,32 @@
       <c r="L48" s="43"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="105" t="s">
+      <c r="C49" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="93"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="83"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="105" t="s">
+      <c r="C50" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="85"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="92" t="s">
+      <c r="D50" s="72"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="86"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="73"/>
       <c r="K50" s="4" t="s">
         <v>35</v>
       </c>
@@ -6711,11 +7107,11 @@
       </c>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="105" t="s">
+      <c r="C51" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="86"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="73"/>
       <c r="F51" s="4" t="s">
         <v>37</v>
       </c>
@@ -6728,18 +7124,18 @@
       <c r="I51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="107" t="s">
+      <c r="J51" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="K51" s="85"/>
-      <c r="L51" s="93"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="83"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="104" t="s">
+      <c r="C52" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="85"/>
-      <c r="E52" s="86"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="73"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
         <v>50</v>
@@ -6750,18 +7146,18 @@
       <c r="I52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="92" t="s">
+      <c r="J52" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="K52" s="85"/>
-      <c r="L52" s="93"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="83"/>
     </row>
     <row r="53" spans="3:12">
-      <c r="C53" s="104" t="s">
+      <c r="C53" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="86"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="73"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
         <v>53</v>
@@ -6779,11 +7175,11 @@
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="3:12">
-      <c r="C54" s="104" t="s">
+      <c r="C54" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="86"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="73"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
         <v>55</v>
@@ -6794,18 +7190,18 @@
       <c r="I54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J54" s="92" t="s">
+      <c r="J54" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="K54" s="85"/>
-      <c r="L54" s="93"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="83"/>
     </row>
     <row r="55" spans="3:12">
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="85"/>
-      <c r="E55" s="86"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="73"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
         <v>53</v>
@@ -6823,11 +7219,11 @@
       <c r="L55" s="12"/>
     </row>
     <row r="56" spans="3:12">
-      <c r="C56" s="104" t="s">
+      <c r="C56" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="85"/>
-      <c r="E56" s="86"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="73"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
         <v>53</v>
@@ -6845,11 +7241,11 @@
       <c r="L56" s="12"/>
     </row>
     <row r="57" spans="3:12">
-      <c r="C57" s="104" t="s">
+      <c r="C57" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="85"/>
-      <c r="E57" s="86"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="73"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6" t="s">
         <v>50</v>
@@ -6858,16 +7254,16 @@
         <v>60</v>
       </c>
       <c r="I57" s="7"/>
-      <c r="J57" s="92" t="s">
+      <c r="J57" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="K57" s="85"/>
-      <c r="L57" s="93"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="83"/>
     </row>
     <row r="58" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C58" s="125"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="127"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="140"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
@@ -6879,11 +7275,11 @@
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C59" s="122" t="s">
+      <c r="C59" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="123"/>
-      <c r="E59" s="124"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="125"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8" t="s">
         <v>101</v>
@@ -6899,11 +7295,11 @@
       <c r="L59" s="13"/>
     </row>
     <row r="60" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C60" s="122" t="s">
+      <c r="C60" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="123"/>
-      <c r="E60" s="124"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="125"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
         <v>103</v>
@@ -6917,32 +7313,32 @@
       <c r="L60" s="13"/>
     </row>
     <row r="61" spans="3:12">
-      <c r="C61" s="105" t="s">
+      <c r="C61" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="93"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="83"/>
     </row>
     <row r="62" spans="3:12">
-      <c r="C62" s="105" t="s">
+      <c r="C62" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="85"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="92" t="s">
+      <c r="D62" s="72"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="86"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="73"/>
       <c r="K62" s="4" t="s">
         <v>35</v>
       </c>
@@ -6951,11 +7347,11 @@
       </c>
     </row>
     <row r="63" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C63" s="105" t="s">
+      <c r="C63" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="85"/>
-      <c r="E63" s="86"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="73"/>
       <c r="F63" s="4" t="s">
         <v>37</v>
       </c>
@@ -6968,18 +7364,18 @@
       <c r="I63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J63" s="107" t="s">
+      <c r="J63" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="K63" s="85"/>
-      <c r="L63" s="93"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="83"/>
     </row>
     <row r="64" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C64" s="122" t="s">
+      <c r="C64" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="123"/>
-      <c r="E64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="125"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8" t="s">
         <v>103</v>
@@ -6993,32 +7389,32 @@
       <c r="L64" s="13"/>
     </row>
     <row r="65" spans="3:12">
-      <c r="C65" s="105" t="s">
+      <c r="C65" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="85"/>
-      <c r="L65" s="93"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="83"/>
     </row>
     <row r="66" spans="3:12">
-      <c r="C66" s="105" t="s">
+      <c r="C66" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="85"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="92" t="s">
+      <c r="D66" s="72"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="86"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="73"/>
       <c r="K66" s="4" t="s">
         <v>35</v>
       </c>
@@ -7027,11 +7423,11 @@
       </c>
     </row>
     <row r="67" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C67" s="105" t="s">
+      <c r="C67" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="85"/>
-      <c r="E67" s="86"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="73"/>
       <c r="F67" s="4" t="s">
         <v>37</v>
       </c>
@@ -7044,18 +7440,18 @@
       <c r="I67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J67" s="107" t="s">
+      <c r="J67" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="85"/>
-      <c r="L67" s="93"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="83"/>
     </row>
     <row r="68" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C68" s="122" t="s">
+      <c r="C68" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="123"/>
-      <c r="E68" s="124"/>
+      <c r="D68" s="124"/>
+      <c r="E68" s="125"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
         <v>103</v>
@@ -7070,18 +7466,61 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C65:L65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P38:R41"/>
+    <mergeCell ref="N38:O41"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="C22:E25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="F23:G25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C6:E14"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="I20:K20"/>
@@ -7098,61 +7537,18 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C49:L49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C22:E25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="F23:G25"/>
-    <mergeCell ref="H23:I25"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P38:R41"/>
-    <mergeCell ref="N38:O41"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="J67:L67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7164,7 +7560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -7174,19 +7570,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="139" t="s">
+      <c r="B1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141" t="s">
+      <c r="E1" s="197"/>
+      <c r="F1" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="140"/>
+      <c r="G1" s="197"/>
       <c r="H1" s="22" t="s">
         <v>28</v>
       </c>
@@ -7198,46 +7594,46 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="134"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="142" t="s">
+      <c r="A2" s="191"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="199" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="E2" s="102"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="107">
         <v>45632</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="128"/>
+      <c r="J2" s="186"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="134"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="129"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="187"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="136"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="130"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="188"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
       <c r="A5" s="25"/>
@@ -7251,62 +7647,62 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="171"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="152" t="s">
+      <c r="B7" s="177"/>
+      <c r="C7" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="152" t="s">
+      <c r="D7" s="177"/>
+      <c r="E7" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="153"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="154" t="s">
+      <c r="B8" s="173"/>
+      <c r="C8" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="155"/>
-      <c r="E8" s="154" t="s">
+      <c r="D8" s="181"/>
+      <c r="E8" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="158"/>
+      <c r="F8" s="184"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="159"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="185"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -7337,78 +7733,78 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="171"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="165" t="s">
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="167"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="169"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="160" t="s">
+      <c r="B14" s="163"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="162"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="164"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="174" t="s">
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="169"/>
-      <c r="F15" s="175"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="159"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="172"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="176" t="s">
+      <c r="B16" s="156"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="172"/>
-      <c r="F16" s="177"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="161"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -7442,12 +7838,12 @@
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="150" t="s">
+      <c r="D19" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
@@ -7718,23 +8114,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -7743,6 +8122,23 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7754,927 +8150,1036 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3CD282-41B3-4BAE-9F25-BBD3A6112B6B}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="2.5" style="185" customWidth="1"/>
-    <col min="7" max="20" width="7.125" style="185" customWidth="1"/>
-    <col min="21" max="26" width="7.625" style="185" customWidth="1"/>
-    <col min="27" max="16384" width="12.625" style="185"/>
+    <col min="1" max="6" width="2.5" style="44" customWidth="1"/>
+    <col min="7" max="17" width="7.125" style="44" customWidth="1"/>
+    <col min="18" max="20" width="10.625" style="44" customWidth="1"/>
+    <col min="21" max="26" width="7.625" style="44" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="181" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="181" t="s">
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="238" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="181" t="s">
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="181" t="s">
+      <c r="P1" s="224"/>
+      <c r="Q1" s="238" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="183"/>
-      <c r="S1" s="181" t="s">
+      <c r="R1" s="224"/>
+      <c r="S1" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="184"/>
+      <c r="T1" s="226"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="192"/>
+      <c r="A2" s="232"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="216" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="216" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="240"/>
+      <c r="O2" s="241">
+        <v>45643</v>
+      </c>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="216" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="240"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="217"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="186"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="193"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="194"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="234"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="195"/>
-      <c r="B4" s="196"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="196"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="199"/>
+      <c r="A4" s="235"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="236"/>
+      <c r="M4" s="236"/>
+      <c r="N4" s="237"/>
+      <c r="O4" s="220"/>
+      <c r="P4" s="237"/>
+      <c r="Q4" s="220"/>
+      <c r="R4" s="237"/>
+      <c r="S4" s="220"/>
+      <c r="T4" s="221"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="222" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="201" t="s">
+      <c r="B5" s="223"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="225" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="223"/>
+      <c r="I5" s="223"/>
+      <c r="J5" s="223"/>
+      <c r="K5" s="223"/>
+      <c r="L5" s="223"/>
+      <c r="M5" s="223"/>
+      <c r="N5" s="223"/>
+      <c r="O5" s="223"/>
+      <c r="P5" s="223"/>
+      <c r="Q5" s="223"/>
+      <c r="R5" s="223"/>
+      <c r="S5" s="223"/>
+      <c r="T5" s="226"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="A6" s="214" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="184"/>
-    </row>
-    <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="202" t="s">
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="227" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
+      <c r="K6" s="208"/>
+      <c r="L6" s="208"/>
+      <c r="M6" s="208"/>
+      <c r="N6" s="208"/>
+      <c r="O6" s="208"/>
+      <c r="P6" s="208"/>
+      <c r="Q6" s="208"/>
+      <c r="R6" s="208"/>
+      <c r="S6" s="208"/>
+      <c r="T6" s="228"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" customHeight="1">
+      <c r="A7" s="214" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="205" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="227" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="P7" s="208"/>
+      <c r="Q7" s="208"/>
+      <c r="R7" s="208"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="228"/>
+    </row>
+    <row r="8" spans="1:26" ht="7.5" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="47"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="203"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="203"/>
-      <c r="Q6" s="203"/>
-      <c r="R6" s="203"/>
-      <c r="S6" s="203"/>
-      <c r="T6" s="206"/>
-    </row>
-    <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="202" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="205" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="206"/>
-    </row>
-    <row r="8" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A8" s="207"/>
-      <c r="B8" s="208"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="208"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="208"/>
-      <c r="N8" s="208"/>
-      <c r="O8" s="208"/>
-      <c r="P8" s="208"/>
-      <c r="Q8" s="208"/>
-      <c r="R8" s="208"/>
-      <c r="S8" s="208"/>
-      <c r="T8" s="209"/>
-    </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A9" s="210"/>
-      <c r="B9" s="211"/>
-      <c r="C9" s="212" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213" t="s">
+      <c r="F11" s="49"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="211"/>
-      <c r="Q9" s="211"/>
-      <c r="R9" s="211"/>
-      <c r="S9" s="211"/>
-      <c r="T9" s="215"/>
-      <c r="U9" s="211"/>
-      <c r="V9" s="211"/>
-      <c r="W9" s="211"/>
-      <c r="X9" s="211"/>
-      <c r="Y9" s="211"/>
-      <c r="Z9" s="211"/>
-    </row>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A10" s="210"/>
-      <c r="B10" s="211"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="211"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="217"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="211"/>
-      <c r="P10" s="211"/>
-      <c r="Q10" s="211"/>
-      <c r="R10" s="211"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="215"/>
-      <c r="U10" s="211"/>
-      <c r="V10" s="211"/>
-      <c r="W10" s="211"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="211"/>
-      <c r="Z10" s="211"/>
-    </row>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A11" s="210"/>
-      <c r="B11" s="211"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211" t="s">
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+    </row>
+    <row r="14" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="47"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A15" s="214" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="211"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="211"/>
-      <c r="K11" s="217"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="211"/>
-      <c r="N11" s="211"/>
-      <c r="O11" s="211"/>
-      <c r="P11" s="211"/>
-      <c r="Q11" s="211"/>
-      <c r="R11" s="211"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="215"/>
-      <c r="U11" s="211"/>
-      <c r="V11" s="211"/>
-      <c r="W11" s="211"/>
-      <c r="X11" s="211"/>
-      <c r="Y11" s="211"/>
-      <c r="Z11" s="211"/>
-    </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A12" s="210"/>
-      <c r="B12" s="211"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211" t="s">
+      <c r="B15" s="209"/>
+      <c r="C15" s="215" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="209"/>
+      <c r="E15" s="213" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="211"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="217"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="211"/>
-      <c r="N12" s="211"/>
-      <c r="O12" s="211"/>
-      <c r="P12" s="211"/>
-      <c r="Q12" s="211"/>
-      <c r="R12" s="211"/>
-      <c r="S12" s="211"/>
-      <c r="T12" s="215"/>
-      <c r="U12" s="211"/>
-      <c r="V12" s="211"/>
-      <c r="W12" s="211"/>
-      <c r="X12" s="211"/>
-      <c r="Y12" s="211"/>
-      <c r="Z12" s="211"/>
-    </row>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A13" s="210"/>
-      <c r="B13" s="211"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="219" t="s">
+      <c r="F15" s="209"/>
+      <c r="G15" s="213" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="219"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="211"/>
-      <c r="N13" s="211"/>
-      <c r="O13" s="211"/>
-      <c r="P13" s="211"/>
-      <c r="Q13" s="211"/>
-      <c r="R13" s="211"/>
-      <c r="S13" s="211"/>
-      <c r="T13" s="215"/>
-      <c r="U13" s="211"/>
-      <c r="V13" s="211"/>
-      <c r="W13" s="211"/>
-      <c r="X13" s="211"/>
-      <c r="Y13" s="211"/>
-      <c r="Z13" s="211"/>
-    </row>
-    <row r="14" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A14" s="207"/>
-      <c r="B14" s="208"/>
-      <c r="C14" s="208"/>
-      <c r="D14" s="208"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="208"/>
-      <c r="M14" s="208"/>
-      <c r="N14" s="208"/>
-      <c r="O14" s="208"/>
-      <c r="P14" s="208"/>
-      <c r="Q14" s="208"/>
-      <c r="R14" s="208"/>
-      <c r="S14" s="208"/>
-      <c r="T14" s="209"/>
-    </row>
-    <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="202" t="s">
+      <c r="H15" s="208"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="213" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="204"/>
-      <c r="C15" s="221" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="204"/>
-      <c r="E15" s="222" t="s">
+      <c r="K15" s="209"/>
+      <c r="L15" s="213" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="204"/>
-      <c r="G15" s="222" t="s">
+      <c r="M15" s="208"/>
+      <c r="N15" s="209"/>
+      <c r="O15" s="213" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="203"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="222" t="s">
+      <c r="P15" s="208"/>
+      <c r="Q15" s="209"/>
+      <c r="R15" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="K15" s="204"/>
-      <c r="L15" s="222" t="s">
+      <c r="S15" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="M15" s="203"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="222" t="s">
+      <c r="T15" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="204"/>
-      <c r="R15" s="223" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="210">
+        <v>1</v>
+      </c>
+      <c r="B16" s="209"/>
+      <c r="C16" s="211" t="s">
         <v>137</v>
       </c>
-      <c r="S15" s="223" t="s">
+      <c r="D16" s="209"/>
+      <c r="E16" s="211" t="s">
         <v>138</v>
       </c>
-      <c r="T15" s="224" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="225">
-        <v>1</v>
-      </c>
-      <c r="B16" s="204"/>
-      <c r="C16" s="226" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="204"/>
-      <c r="E16" s="226" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="204"/>
-      <c r="G16" s="227" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="203"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="227" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="204"/>
-      <c r="L16" s="228" t="s">
-        <v>144</v>
-      </c>
-      <c r="M16" s="203"/>
-      <c r="N16" s="204"/>
-      <c r="O16" s="228" t="s">
+      <c r="F16" s="209"/>
+      <c r="G16" s="212" t="s">
         <v>145</v>
       </c>
-      <c r="P16" s="203"/>
-      <c r="Q16" s="204"/>
-      <c r="R16" s="229"/>
-      <c r="S16" s="229"/>
-      <c r="T16" s="230"/>
-      <c r="U16" s="231"/>
-      <c r="V16" s="231"/>
-      <c r="W16" s="231"/>
-      <c r="X16" s="231"/>
-      <c r="Y16" s="231"/>
-      <c r="Z16" s="231"/>
-    </row>
-    <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="225">
+      <c r="H16" s="208"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="212" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="209"/>
+      <c r="L16" s="207" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="208"/>
+      <c r="N16" s="209"/>
+      <c r="O16" s="207" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="208"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="242">
+        <v>45643</v>
+      </c>
+      <c r="S16" s="61"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+    </row>
+    <row r="17" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="210">
         <v>2</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="226" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="204"/>
-      <c r="E17" s="226" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="204"/>
-      <c r="G17" s="227" t="s">
+      <c r="B17" s="209"/>
+      <c r="C17" s="211" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="209"/>
+      <c r="E17" s="211" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="209"/>
+      <c r="G17" s="212" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="203"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="227" t="s">
+      <c r="H17" s="208"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="212" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="204"/>
-      <c r="L17" s="228" t="s">
+      <c r="K17" s="209"/>
+      <c r="L17" s="207" t="s">
         <v>150</v>
       </c>
-      <c r="M17" s="203"/>
-      <c r="N17" s="204"/>
-      <c r="O17" s="228" t="s">
+      <c r="M17" s="208"/>
+      <c r="N17" s="209"/>
+      <c r="O17" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="P17" s="203"/>
-      <c r="Q17" s="204"/>
-      <c r="R17" s="229"/>
-      <c r="S17" s="229"/>
-      <c r="T17" s="230"/>
-      <c r="U17" s="231"/>
-      <c r="V17" s="231"/>
-      <c r="W17" s="231"/>
-      <c r="X17" s="231"/>
-      <c r="Y17" s="231"/>
-      <c r="Z17" s="231"/>
-    </row>
-    <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="225"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="226"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="227"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="228"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="204"/>
-      <c r="O18" s="228"/>
-      <c r="P18" s="203"/>
-      <c r="Q18" s="204"/>
-      <c r="R18" s="229"/>
-      <c r="S18" s="229"/>
-      <c r="T18" s="230"/>
-      <c r="U18" s="231"/>
-      <c r="V18" s="231"/>
-      <c r="W18" s="231"/>
-      <c r="X18" s="231"/>
-      <c r="Y18" s="231"/>
-      <c r="Z18" s="231"/>
-    </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="225"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="226"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="226"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="227"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="228"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="204"/>
-      <c r="O19" s="228"/>
-      <c r="P19" s="203"/>
-      <c r="Q19" s="204"/>
-      <c r="R19" s="229"/>
-      <c r="S19" s="229"/>
-      <c r="T19" s="230"/>
-      <c r="U19" s="231"/>
-      <c r="V19" s="231"/>
-      <c r="W19" s="231"/>
-      <c r="X19" s="231"/>
-      <c r="Y19" s="231"/>
-      <c r="Z19" s="231"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="225"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="226"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="227"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="228"/>
-      <c r="M20" s="203"/>
-      <c r="N20" s="204"/>
-      <c r="O20" s="228"/>
-      <c r="P20" s="203"/>
-      <c r="Q20" s="204"/>
-      <c r="R20" s="229"/>
-      <c r="S20" s="229"/>
-      <c r="T20" s="230"/>
-      <c r="U20" s="231"/>
-      <c r="V20" s="231"/>
-      <c r="W20" s="231"/>
-      <c r="X20" s="231"/>
-      <c r="Y20" s="231"/>
-      <c r="Z20" s="231"/>
-    </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="225"/>
-      <c r="B21" s="204"/>
-      <c r="C21" s="226"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="226"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="227"/>
-      <c r="K21" s="204"/>
-      <c r="L21" s="228"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="204"/>
-      <c r="O21" s="228"/>
-      <c r="P21" s="203"/>
-      <c r="Q21" s="204"/>
-      <c r="R21" s="229"/>
-      <c r="S21" s="229"/>
-      <c r="T21" s="230"/>
-      <c r="U21" s="231"/>
-      <c r="V21" s="231"/>
-      <c r="W21" s="231"/>
-      <c r="X21" s="231"/>
-      <c r="Y21" s="231"/>
-      <c r="Z21" s="231"/>
-    </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="225"/>
-      <c r="B22" s="204"/>
-      <c r="C22" s="226"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="227"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="227"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="228"/>
-      <c r="M22" s="203"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="228"/>
-      <c r="P22" s="203"/>
-      <c r="Q22" s="204"/>
-      <c r="R22" s="229"/>
-      <c r="S22" s="229"/>
-      <c r="T22" s="230"/>
-      <c r="U22" s="231"/>
-      <c r="V22" s="231"/>
-      <c r="W22" s="231"/>
-      <c r="X22" s="231"/>
-      <c r="Y22" s="231"/>
-      <c r="Z22" s="231"/>
-    </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="225"/>
-      <c r="B23" s="204"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="226"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="227"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="228"/>
-      <c r="M23" s="203"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="228"/>
-      <c r="P23" s="203"/>
-      <c r="Q23" s="204"/>
-      <c r="R23" s="229"/>
-      <c r="S23" s="229"/>
-      <c r="T23" s="230"/>
-      <c r="U23" s="231"/>
-      <c r="V23" s="231"/>
-      <c r="W23" s="231"/>
-      <c r="X23" s="231"/>
-      <c r="Y23" s="231"/>
-      <c r="Z23" s="231"/>
-    </row>
-    <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="225"/>
-      <c r="B24" s="204"/>
-      <c r="C24" s="226"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="226"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="227"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="227"/>
-      <c r="K24" s="204"/>
-      <c r="L24" s="228"/>
-      <c r="M24" s="203"/>
-      <c r="N24" s="204"/>
-      <c r="O24" s="228"/>
-      <c r="P24" s="203"/>
-      <c r="Q24" s="204"/>
-      <c r="R24" s="229"/>
-      <c r="S24" s="229"/>
-      <c r="T24" s="230"/>
-      <c r="U24" s="231"/>
-      <c r="V24" s="231"/>
-      <c r="W24" s="231"/>
-      <c r="X24" s="231"/>
-      <c r="Y24" s="231"/>
-      <c r="Z24" s="231"/>
-    </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="225"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="226"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="226"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="227"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="227"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="228"/>
-      <c r="M25" s="203"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="228"/>
-      <c r="P25" s="203"/>
-      <c r="Q25" s="204"/>
-      <c r="R25" s="229"/>
-      <c r="S25" s="229"/>
-      <c r="T25" s="230"/>
-      <c r="U25" s="231"/>
-      <c r="V25" s="231"/>
-      <c r="W25" s="231"/>
-      <c r="X25" s="231"/>
-      <c r="Y25" s="231"/>
-      <c r="Z25" s="231"/>
-    </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="225"/>
-      <c r="B26" s="204"/>
-      <c r="C26" s="226"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="226"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="227"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="227"/>
-      <c r="K26" s="204"/>
-      <c r="L26" s="228"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="204"/>
-      <c r="O26" s="228"/>
-      <c r="P26" s="203"/>
-      <c r="Q26" s="204"/>
-      <c r="R26" s="229"/>
-      <c r="S26" s="229"/>
-      <c r="T26" s="230"/>
-      <c r="U26" s="231"/>
-      <c r="V26" s="231"/>
-      <c r="W26" s="231"/>
-      <c r="X26" s="231"/>
-      <c r="Y26" s="231"/>
-      <c r="Z26" s="231"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="225"/>
-      <c r="B27" s="204"/>
-      <c r="C27" s="226"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="226"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="227"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="227"/>
-      <c r="K27" s="204"/>
-      <c r="L27" s="228"/>
-      <c r="M27" s="203"/>
-      <c r="N27" s="204"/>
-      <c r="O27" s="228"/>
-      <c r="P27" s="203"/>
-      <c r="Q27" s="204"/>
-      <c r="R27" s="229"/>
-      <c r="S27" s="229"/>
-      <c r="T27" s="230"/>
-      <c r="U27" s="231"/>
-      <c r="V27" s="231"/>
-      <c r="W27" s="231"/>
-      <c r="X27" s="231"/>
-      <c r="Y27" s="231"/>
-      <c r="Z27" s="231"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="225"/>
-      <c r="B28" s="204"/>
-      <c r="C28" s="226"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="226"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="227"/>
-      <c r="K28" s="204"/>
-      <c r="L28" s="228"/>
-      <c r="M28" s="203"/>
-      <c r="N28" s="204"/>
-      <c r="O28" s="228"/>
-      <c r="P28" s="203"/>
-      <c r="Q28" s="204"/>
-      <c r="R28" s="229"/>
-      <c r="S28" s="229"/>
-      <c r="T28" s="230"/>
-      <c r="U28" s="231"/>
-      <c r="V28" s="231"/>
-      <c r="W28" s="231"/>
-      <c r="X28" s="231"/>
-      <c r="Y28" s="231"/>
-      <c r="Z28" s="231"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="225"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="226"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="226"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="227"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="227"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="228"/>
-      <c r="M29" s="203"/>
-      <c r="N29" s="204"/>
-      <c r="O29" s="228"/>
-      <c r="P29" s="203"/>
-      <c r="Q29" s="204"/>
-      <c r="R29" s="229"/>
-      <c r="S29" s="229"/>
-      <c r="T29" s="230"/>
-      <c r="U29" s="231"/>
-      <c r="V29" s="231"/>
-      <c r="W29" s="231"/>
-      <c r="X29" s="231"/>
-      <c r="Y29" s="231"/>
-      <c r="Z29" s="231"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="225"/>
-      <c r="B30" s="204"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="227"/>
-      <c r="K30" s="204"/>
-      <c r="L30" s="228"/>
-      <c r="M30" s="203"/>
-      <c r="N30" s="204"/>
-      <c r="O30" s="228"/>
-      <c r="P30" s="203"/>
-      <c r="Q30" s="204"/>
-      <c r="R30" s="229"/>
-      <c r="S30" s="229"/>
-      <c r="T30" s="230"/>
-      <c r="U30" s="231"/>
-      <c r="V30" s="231"/>
-      <c r="W30" s="231"/>
-      <c r="X30" s="231"/>
-      <c r="Y30" s="231"/>
-      <c r="Z30" s="231"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A31" s="232"/>
-      <c r="B31" s="233"/>
-      <c r="C31" s="234"/>
-      <c r="D31" s="233"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="233"/>
-      <c r="G31" s="235"/>
-      <c r="H31" s="236"/>
-      <c r="I31" s="233"/>
-      <c r="J31" s="235"/>
-      <c r="K31" s="233"/>
-      <c r="L31" s="237"/>
-      <c r="M31" s="236"/>
-      <c r="N31" s="233"/>
-      <c r="O31" s="237"/>
-      <c r="P31" s="236"/>
-      <c r="Q31" s="233"/>
-      <c r="R31" s="238"/>
-      <c r="S31" s="238"/>
-      <c r="T31" s="239"/>
-      <c r="U31" s="231"/>
-      <c r="V31" s="231"/>
-      <c r="W31" s="231"/>
-      <c r="X31" s="231"/>
-      <c r="Y31" s="231"/>
-      <c r="Z31" s="231"/>
+      <c r="P17" s="208"/>
+      <c r="Q17" s="209"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+    </row>
+    <row r="18" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="210">
+        <v>3</v>
+      </c>
+      <c r="B18" s="209"/>
+      <c r="C18" s="211" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="209"/>
+      <c r="E18" s="211" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="209"/>
+      <c r="G18" s="212" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="208"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="212" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="209"/>
+      <c r="L18" s="207" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" s="208"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="207" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" s="208"/>
+      <c r="Q18" s="209"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+    </row>
+    <row r="19" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="210">
+        <v>4</v>
+      </c>
+      <c r="B19" s="209"/>
+      <c r="C19" s="211" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="209"/>
+      <c r="E19" s="211" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="209"/>
+      <c r="G19" s="212" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="208"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="212" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="209"/>
+      <c r="L19" s="207" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" s="208"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="207" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" s="208"/>
+      <c r="Q19" s="209"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+    </row>
+    <row r="20" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="210">
+        <v>5</v>
+      </c>
+      <c r="B20" s="209"/>
+      <c r="C20" s="211" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="209"/>
+      <c r="E20" s="211" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="209"/>
+      <c r="G20" s="212" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="208"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="212" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="209"/>
+      <c r="L20" s="207" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" s="208"/>
+      <c r="N20" s="209"/>
+      <c r="O20" s="207" t="s">
+        <v>164</v>
+      </c>
+      <c r="P20" s="208"/>
+      <c r="Q20" s="209"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+    </row>
+    <row r="21" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="210">
+        <v>6</v>
+      </c>
+      <c r="B21" s="209"/>
+      <c r="C21" s="211" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="211" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="209"/>
+      <c r="G21" s="212" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="208"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="212" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" s="209"/>
+      <c r="L21" s="207" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" s="208"/>
+      <c r="N21" s="209"/>
+      <c r="O21" s="207" t="s">
+        <v>163</v>
+      </c>
+      <c r="P21" s="208"/>
+      <c r="Q21" s="209"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+    </row>
+    <row r="22" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="210">
+        <v>7</v>
+      </c>
+      <c r="B22" s="209"/>
+      <c r="C22" s="211" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="209"/>
+      <c r="E22" s="211" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="209"/>
+      <c r="G22" s="212" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="208"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="212" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="209"/>
+      <c r="L22" s="207" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" s="208"/>
+      <c r="N22" s="209"/>
+      <c r="O22" s="207" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="208"/>
+      <c r="Q22" s="209"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+    </row>
+    <row r="23" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="210">
+        <v>8</v>
+      </c>
+      <c r="B23" s="209"/>
+      <c r="C23" s="211" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="209"/>
+      <c r="E23" s="211" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="209"/>
+      <c r="G23" s="212" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="208"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="212" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" s="209"/>
+      <c r="L23" s="207" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" s="208"/>
+      <c r="N23" s="209"/>
+      <c r="O23" s="207" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="208"/>
+      <c r="Q23" s="209"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+    </row>
+    <row r="24" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="210">
+        <v>9</v>
+      </c>
+      <c r="B24" s="209"/>
+      <c r="C24" s="211" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="209"/>
+      <c r="E24" s="211" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="209"/>
+      <c r="G24" s="212" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="208"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="212" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="209"/>
+      <c r="L24" s="207" t="s">
+        <v>169</v>
+      </c>
+      <c r="M24" s="208"/>
+      <c r="N24" s="209"/>
+      <c r="O24" s="207" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="209"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+    </row>
+    <row r="25" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="210"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="212"/>
+      <c r="K25" s="209"/>
+      <c r="L25" s="207"/>
+      <c r="M25" s="208"/>
+      <c r="N25" s="209"/>
+      <c r="O25" s="207"/>
+      <c r="P25" s="208"/>
+      <c r="Q25" s="209"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+    </row>
+    <row r="26" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="210"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="209"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="208"/>
+      <c r="N26" s="209"/>
+      <c r="O26" s="207"/>
+      <c r="P26" s="208"/>
+      <c r="Q26" s="209"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+    </row>
+    <row r="27" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="210"/>
+      <c r="B27" s="209"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="209"/>
+      <c r="J27" s="212"/>
+      <c r="K27" s="209"/>
+      <c r="L27" s="207"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="209"/>
+      <c r="O27" s="207"/>
+      <c r="P27" s="208"/>
+      <c r="Q27" s="209"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+    </row>
+    <row r="28" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="210"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="212"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="208"/>
+      <c r="N28" s="209"/>
+      <c r="O28" s="207"/>
+      <c r="P28" s="208"/>
+      <c r="Q28" s="209"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+    </row>
+    <row r="29" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="210"/>
+      <c r="B29" s="209"/>
+      <c r="C29" s="211"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="209"/>
+      <c r="J29" s="212"/>
+      <c r="K29" s="209"/>
+      <c r="L29" s="207"/>
+      <c r="M29" s="208"/>
+      <c r="N29" s="209"/>
+      <c r="O29" s="207"/>
+      <c r="P29" s="208"/>
+      <c r="Q29" s="209"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+    </row>
+    <row r="30" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="210"/>
+      <c r="B30" s="209"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="212"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="208"/>
+      <c r="N30" s="209"/>
+      <c r="O30" s="207"/>
+      <c r="P30" s="208"/>
+      <c r="Q30" s="209"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+    </row>
+    <row r="31" spans="1:26" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="A31" s="204"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="206"/>
+      <c r="K31" s="203"/>
+      <c r="L31" s="201"/>
+      <c r="M31" s="202"/>
+      <c r="N31" s="203"/>
+      <c r="O31" s="201"/>
+      <c r="P31" s="202"/>
+      <c r="Q31" s="203"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
-      <c r="D32" s="240"/>
-      <c r="E32" s="240"/>
-      <c r="F32" s="240"/>
-      <c r="G32" s="240"/>
-      <c r="H32" s="240"/>
-      <c r="I32" s="240"/>
-      <c r="J32" s="240"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="4:10" ht="12.75" customHeight="1">
-      <c r="D33" s="240"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
-      <c r="G33" s="240"/>
-      <c r="H33" s="240"/>
-      <c r="I33" s="240"/>
-      <c r="J33" s="240"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="4:10" ht="12.75" customHeight="1"/>
     <row r="35" spans="4:10" ht="12.75" customHeight="1"/>
@@ -9645,6 +10150,121 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="O31:Q31"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
@@ -9666,121 +10286,6 @@
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
